--- a/Practice Sessions/Session 3/DGE_CRED_Model/ExcelFiles/Data/Damages.xlsx
+++ b/Practice Sessions/Session 3/DGE_CRED_Model/ExcelFiles/Data/Damages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rice and Agriculture" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="55">
   <si>
     <t>SLR</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Agriculture excl. Rice</t>
   </si>
   <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
     <t>Northen Midland and Mountain area</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>region affected by fire with adaptation measure</t>
   </si>
   <si>
-    <t>total forest area (as of February 2018)</t>
-  </si>
-  <si>
     <t>Cost of implementing adaptation measure</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
   </si>
   <si>
     <t>loss in forest between 2002 and 2011</t>
-  </si>
-  <si>
-    <t>planted</t>
   </si>
   <si>
     <t>natural</t>
@@ -185,6 +173,21 @@
   </si>
   <si>
     <t>Damage relative to GDP</t>
+  </si>
+  <si>
+    <t>Damage in percent</t>
+  </si>
+  <si>
+    <t>total forest area in ha (as of February 2018)</t>
+  </si>
+  <si>
+    <t>planted (ha)</t>
+  </si>
+  <si>
+    <t>Costs in Million VND</t>
+  </si>
+  <si>
+    <t>Costs in percent</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1794,27 +1797,42 @@
   <sheetData>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -1823,22 +1841,22 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
         <v>7</v>
@@ -1847,16 +1865,16 @@
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S4" t="s">
         <v>5</v>
       </c>
       <c r="T4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U4" t="s">
         <v>7</v>
@@ -1864,7 +1882,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2.2325493798877417E-6</v>
@@ -1933,7 +1951,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1.3738765414693795E-6</v>
@@ -2002,7 +2020,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>494.4</v>
@@ -2068,7 +2086,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -2116,7 +2134,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1.1037724134164994E-3</v>
@@ -2275,10 +2293,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>32500</v>
@@ -2329,7 +2347,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>20000</v>
@@ -2434,7 +2452,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J15">
         <f>SUM(J5:J14)</f>
@@ -2490,6 +2508,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2506,7 +2528,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2525,10 +2547,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2536,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -2557,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
         <v>7</v>
@@ -3520,15 +3542,15 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -3543,7 +3565,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -3564,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N25" t="s">
         <v>7</v>
@@ -4515,7 +4537,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4540,10 +4562,10 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -4553,7 +4575,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -4565,7 +4587,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -4580,7 +4602,7 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
         <v>7</v>
@@ -4589,7 +4611,7 @@
         <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s">
         <v>2</v>
@@ -4604,7 +4626,7 @@
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O48" t="s">
         <v>7</v>
@@ -4625,7 +4647,7 @@
         <v>5</v>
       </c>
       <c r="U48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V48" t="s">
         <v>7</v>
@@ -6550,15 +6572,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6577,10 +6599,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -6594,13 +6616,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -6612,13 +6634,13 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
         <v>8</v>
@@ -7446,48 +7468,48 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
       <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
         <v>33</v>
       </c>
-      <c r="J25" t="s">
+      <c r="N25" t="s">
         <v>34</v>
-      </c>
-      <c r="K25" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -7501,13 +7523,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -7522,13 +7544,13 @@
         <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L26" t="s">
         <v>5</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N26" t="s">
         <v>7</v>
@@ -8479,7 +8501,7 @@
     </row>
     <row r="48" spans="1:23" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A48" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -8506,7 +8528,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -8515,19 +8537,19 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
         <v>2</v>
@@ -8536,13 +8558,13 @@
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L49" t="s">
         <v>5</v>
       </c>
       <c r="M49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N49" t="s">
         <v>7</v>
@@ -9870,7 +9892,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -9879,19 +9901,19 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
         <v>2</v>
@@ -9900,13 +9922,13 @@
         <v>3</v>
       </c>
       <c r="K81" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L81" t="s">
         <v>5</v>
       </c>
       <c r="M81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N81" t="s">
         <v>7</v>
@@ -11327,27 +11349,27 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" t="s">
         <v>33</v>
       </c>
-      <c r="C114" t="s">
+      <c r="G114" t="s">
         <v>34</v>
-      </c>
-      <c r="D114" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" t="s">
-        <v>36</v>
-      </c>
-      <c r="F114" t="s">
-        <v>37</v>
-      </c>
-      <c r="G114" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -11372,7 +11394,7 @@
     </row>
     <row r="117" spans="1:20" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A117" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -11396,7 +11418,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -11405,13 +11427,13 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
         <v>7</v>
@@ -11423,13 +11445,13 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K118" t="s">
         <v>5</v>
       </c>
       <c r="L118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M118" t="s">
         <v>7</v>
@@ -12667,7 +12689,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
@@ -12676,13 +12698,13 @@
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
         <v>7</v>
@@ -12694,13 +12716,13 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K149" t="s">
         <v>5</v>
       </c>
       <c r="L149" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M149" t="s">
         <v>7</v>
@@ -14031,7 +14053,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.55000000000000004">
